--- a/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(M)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(M).xlsx
+++ b/biology/Écologie/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(M)/Écozone_paléarctique___plantes_à_graines_par_nom_scientifique_(M).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,31 +525,172 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mac
-Machaerium
+          <t>Mac</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Machaerium
 Macleaya
 Macleaya microcarpa
 Macrolobium
 Macroptilium
-Macrosamanea
-Mag
-Magnolia
+Macrosamanea</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ma</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mag</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Magnolia
 Magnolia acuminata - Magnolia acuminé
 Magnolia grandiflora - Magnolia à grandes fleurs
 Magnolia stellata- Magnolia étoilé
 Magnolia wilsonii - Magnolia Wilson
 Magnolia loebneri
-Magnolia soulangeana
-Mah
-Mahonia
+Magnolia soulangeana</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ma</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mah</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mahonia
 Mahonia bealei
-Mahonia media
-Mai
-Maianthemum - Convallariacées ou Ruscacées
+Mahonia media</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ma</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Maianthemum - Convallariacées ou Ruscacées
 Maianthemum bifolium - Maïanthème à deux feuilles 	
-Maianthemum stellatum - Maïanthème étoilé
-Mal
-Malaxis
+Maianthemum stellatum - Maïanthème étoilé</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ma</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mal</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Malaxis
 Malaxis monophyllos
 Malcomia
 Malcomia maritima - Julienne de Mahon
@@ -555,9 +708,43 @@
 Malva parviflora - Mauve à petites fleurs
 Malva pusilla - Mauve à feuilles rondes
 Malva sylvestris - Grande mauve ou Mauve sylvestre
-Malva verticillata - Mauve verticillée
-Mar
-Maranta
+Malva verticillata - Mauve verticillée</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ma</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Maranta
 Maranta leuconeura - Marante
 Marrubium
 Marrubium alysson - Marrube rose
@@ -565,9 +752,43 @@
 Marsilea
 Marsilea quadrifolia - Marsilée à quatre feuilles
 Marsilea strigosa - Marsiléa pubescent
-Martiodendron
-Mat
-Matricaria - Composées
+Martiodendron</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ma</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mat</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Matricaria - Composées
 Matricaria sp. - Matricaire ou « Fausse camomille »
 Matteuccia
 Matteuccia struthiopteris - Matteuccie fougère-à-l'autruche
@@ -576,52 +797,159 @@
 Matthiola fruticulosa fruticulosa
 Matthiola fruticulosa vallesiaca - Matthiola en buisson
 Matthiola incana - Giroflée
-Matthiola sinuata - Giroflée des dunes
-May
-Maytenus
+Matthiola sinuata - Giroflée des dunes</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ma</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maytenus
 Maytenus boaria
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Me</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mec
-Meconopsis - Papavéracées
-Meconopsis cambrica - Pavot du Pays de Galles
-Med
-Medicago - Fabacées
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mec</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Meconopsis - Papavéracées
+Meconopsis cambrica - Pavot du Pays de Galles</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Me</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Med</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Medicago - Fabacées
 Medicago arabica - Luzerne d'Arabie
 Medicago arborea - Luzerne arborescente
 Medicago lupulina - Luzerne lupuline ou Minette
 Medicago sativa - Luzerne cultivée
-Medicago secundiflora - Luzerne à fleurs unilatérales
-Mel
-Melampodium
+Medicago secundiflora - Luzerne à fleurs unilatérales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Me</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Mel</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Melampodium
 Melampodium paludosum - Melanpodium
 Melampyrum - Scrophulariacées
 Melampyrum arvense - Mélampyre des champs
@@ -634,9 +962,43 @@
 Melissa - Lamiacées
 Melissa officinalis - Mélisse officinale
 Melittis- Lamiacées
-Melittis melissophyllum - Mélitte à feuilles de mélisse
-Men
-Mentha - Lamiacées
+Melittis melissophyllum - Mélitte à feuilles de mélisse</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Me</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Men</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Mentha - Lamiacées
 Mentha aquatica - Menthe aquatique
 Mentha aquatica aquatica
 Mentha aquatica ortmanniana
@@ -663,120 +1025,470 @@
 Mentha × villosa - Menthe velue
 Mentha × villosonervata
 Menyanthes - Ményanthacées
-Menyanthes trifoliata - Trèfle d'eau
-Mer
-Mercurialis - Euphorbiacées
+Menyanthes trifoliata - Trèfle d'eau</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Me</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Mer</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Mercurialis - Euphorbiacées
 Mercurialis annua - Mercuriale annuelle
 Mercurialis perennis - Mercuriale vivace
 Mertensia
-Mertensia maritima - Mertensie maritime
-Mes
-Mesembryanthemum - Aizoacées voir à  Ficoïde
+Mertensia maritima - Mertensie maritime</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Me</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Mesembryanthemum - Aizoacées voir à  Ficoïde
 Mesembryanthemum criniflorum - Ficoïde criniflorum
 Mesembryanthemum cristallinum
 Mesembryanthemum tricolore - Ficoïde tricolore
 Mespilus - Rosacées
-Mespilus germanica - Néflier
-Met
-Metrosideros - Myrtacées
+Mespilus germanica - Néflier</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Me</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Met</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Metrosideros - Myrtacées
 Metrosideros excelsa - Arbre de Noël de Nouvelle-Zélande
 Metrosideros kermadecensis
 Metrosideros polymorpha
 Metrosideros queenslandica ou Thaleropia queenslandica
 Metrosideros robusta
-Metrosideros thomasii
-Meu
-Meum - Apiacées
+Metrosideros thomasii</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Me</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Meu</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Meum - Apiacées
 Meum athamanticum - Fenouil des Alpes
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Mi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mil
-Milium
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mil</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Milium
 Milium effusum - Millet diffus
 Miltonia
-Miltonia Cultivars - Miltonia
-Mim
-Mimosa
+Miltonia Cultivars - Miltonia</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Mi</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Mim</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Mimosa
 Mimulus - Scrophulariacées
 Mimulus cardinalis - Mimule cardinale
 Mimulus cupreus
-Mimulus glabratus
-Min
-Minuartia
-Minuartia dawsonensis
-Mir
-Mirabilis - Nyctaginacée
+Mimulus glabratus</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Mi</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Minuartia
+Minuartia dawsonensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Mi</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mir</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mirabilis - Nyctaginacée
 Mirabilis jalapa - Belle de nuit
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Mo</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Moe
-Moehringia
-Moehringia lateriflora - Moehringia à feuille large
-Mol
-Moldenhawera
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Moe</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Moehringia
+Moehringia lateriflora - Moehringia à feuille large</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Mo</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Mol</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Moldenhawera
 Molucella - Labiacées
-Molucella laevis - Clochette d'Irlande
-Mom
-Momordica - Cucurbitacée
-Momordica balsamina - Momordica balsamine
-Mon
-Monarda
+Molucella laevis - Clochette d'Irlande</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Mo</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Mom</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Momordica - Cucurbitacée
+Momordica balsamina - Momordica balsamine</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Mo</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Monarda
 Monarda didyma
 Moneses
 Moneses uniflora
@@ -789,54 +1501,195 @@
 Montbretia crocosmiiflora ou Crocosmia crocosmiiflora
 Montbretia grandiflora - Montbretia à grandes fleurs
 Montia
-Montia fontana
-Mor
-Mora
+Montia fontana</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Mo</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Mor</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mora
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Mu</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Muc
-Mucuna
-Mue
-Muellera
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Muc</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Mucuna</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Mu</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Mue</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Muellera
 Muehlenbeckia
-Muehlenbeckia complexa - Muehlenbeckie
-Muh
-Muhlenbergia
+Muehlenbeckia complexa - Muehlenbeckie</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Mu</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Muh</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Muhlenbergia
 Muhlenbergia frondosa - Muhlenbergie feuillée
 Muhlenbergia glomerata - Muhlenbergie agglomérée
 Muhlenbergia mexicana - Muhlenbergie mexicaine
 Muhlenbergia richardsonis - Muhlenbergie de Richardson
-Muhlenbergia sylvestica - Muhlenbergie des bois
-Mus
-Muscari - Liliacées
+Muhlenbergia sylvestica - Muhlenbergie des bois</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Mu</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mus</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muscari - Liliacées
 Muscari armeniacum - Muscari d'Arménie
 Muscari botryoïdes
 Muscari botryoïdes album
@@ -846,54 +1699,161 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>My</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Myc
-Mycelis
-Mycelis muralis
-Myo
-Myoporum
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Myc</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Mycelis
+Mycelis muralis</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>My</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Myo</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Myoporum
 Myoporum laetum
 Myosotis - Borraginacée
 Myosotis alpestris - Myosotis des Alpes
 Myosotis arvensis - Myosotis des champs
 Myosotis laxa
 Myosotis palustris - Myosotis des marais
-Myosotis sicula -Myosotis de Sicile
-Myr
-Myriophyllum
+Myosotis sicula -Myosotis de Sicile</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>My</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Myr</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Myriophyllum
 Myriophyllum heterophyllum
 Myriophyllum humile
 Myrocarpus
 Myroxylon
 Myrtus
-Myrtus communis - Myrte
-Mys
-Mysanthus
+Myrtus communis - Myrte</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Écozone_paléarctique_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_pal%C3%A9arctique_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>My</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Mys</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mysanthus
 Voir aussi Plantes par nom scientifique
  Portail de l’écologie   Portail de la botanique                    </t>
         </is>
